--- a/main_script/output/table_6.xlsx
+++ b/main_script/output/table_6.xlsx
@@ -14,52 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>1.000 ¢
-bas:
-GHz
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>1.000 GHz
+1 500 GHz
 2.000 GHz</t>
   </si>
   <si>
-    <t>6 725 UB</t>
-  </si>
-  <si>
-    <t>kK
-1074 408</t>
-  </si>
-  <si>
-    <t>a7 JE
-32030 d&amp;
-34.700 JB</t>
+    <t>71
+6 276
+67253</t>
+  </si>
+  <si>
+    <t>107219/K
+94017nV.
+1074408K</t>
+  </si>
+  <si>
+    <t>97E
+30
+33.700dB</t>
   </si>
   <si>
     <t>2.500 GHz</t>
   </si>
   <si>
-    <t>1072 760 K|</t>
-  </si>
-  <si>
-    <t>33 256 dB</t>
-  </si>
-  <si>
-    <t>3.000 GHz</t>
+    <t>1072 760 K</t>
+  </si>
+  <si>
+    <t>33256dB</t>
+  </si>
+  <si>
+    <t>3 000 GHz</t>
   </si>
   <si>
     <t>7.047 dB</t>
   </si>
   <si>
-    <t>37 023 dB</t>
-  </si>
-  <si>
-    <t>3.600 GHz</t>
-  </si>
-  <si>
-    <t>7.011 dB
+    <t>1179.363K</t>
+  </si>
+  <si>
+    <t>37023dB</t>
+  </si>
+  <si>
+    <t>3.500 GHz</t>
+  </si>
+  <si>
+    <t>7.011dB
 7.314 dB</t>
   </si>
   <si>
-    <t>1166.994</t>
+    <t>1166.994K</t>
   </si>
   <si>
     <t>36.723 dB</t>
@@ -429,7 +434,7 @@
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,35 +471,37 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
